--- a/experiments/box-plot-mine.xlsx
+++ b/experiments/box-plot-mine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Publications\UML-State-machine-Full-Code-gen\Full USM\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Publications\C++ USM sync with macros\USMSyncCpp\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2232,8 +2232,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="276770656"/>
-        <c:axId val="276771048"/>
+        <c:axId val="279121720"/>
+        <c:axId val="279122112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2438,11 +2438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="276770656"/>
-        <c:axId val="276771048"/>
+        <c:axId val="279121720"/>
+        <c:axId val="279122112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="276770656"/>
+        <c:axId val="279121720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2477,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276771048"/>
+        <c:crossAx val="279122112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2487,7 +2487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276771048"/>
+        <c:axId val="279122112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,7 +2522,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276770656"/>
+        <c:crossAx val="279121720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3376,8 +3376,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="381497824"/>
-        <c:axId val="371735272"/>
+        <c:axId val="279120544"/>
+        <c:axId val="279120152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3582,11 +3582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="381497824"/>
-        <c:axId val="371735272"/>
+        <c:axId val="279120544"/>
+        <c:axId val="279120152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381497824"/>
+        <c:axId val="279120544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,7 +3621,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371735272"/>
+        <c:crossAx val="279120152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3631,7 +3631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371735272"/>
+        <c:axId val="279120152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,7 +3666,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381497824"/>
+        <c:crossAx val="279120544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3887,8 +3887,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="276771832"/>
-        <c:axId val="276772224"/>
+        <c:axId val="279122896"/>
+        <c:axId val="279123288"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4061,8 +4061,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="276771832"/>
-        <c:axId val="276772224"/>
+        <c:axId val="279122896"/>
+        <c:axId val="279123288"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4396,11 +4396,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="276771832"/>
-        <c:axId val="276772224"/>
+        <c:axId val="279122896"/>
+        <c:axId val="279123288"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="276771832"/>
+        <c:axId val="279122896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,7 +4435,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276772224"/>
+        <c:crossAx val="279123288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4445,7 +4445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276772224"/>
+        <c:axId val="279123288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,7 +4480,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276771832"/>
+        <c:crossAx val="279122896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4931,8 +4931,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="276770264"/>
-        <c:axId val="276769872"/>
+        <c:axId val="279124072"/>
+        <c:axId val="177933112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5159,11 +5159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="276770264"/>
-        <c:axId val="276769872"/>
+        <c:axId val="279124072"/>
+        <c:axId val="177933112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="276770264"/>
+        <c:axId val="279124072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5198,7 +5198,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276769872"/>
+        <c:crossAx val="177933112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5208,7 +5208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276769872"/>
+        <c:axId val="177933112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5243,7 +5243,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276770264"/>
+        <c:crossAx val="279124072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5693,7 +5693,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>591047</xdr:colOff>
+      <xdr:colOff>502753</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>86553</xdr:rowOff>
     </xdr:to>
@@ -5705,9 +5705,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2643187" y="495300"/>
-          <a:ext cx="6329860" cy="3801303"/>
+          <a:ext cx="6241566" cy="3801303"/>
           <a:chOff x="-138113" y="-95250"/>
-          <a:chExt cx="6329860" cy="3801303"/>
+          <a:chExt cx="6241566" cy="3801303"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -5718,9 +5718,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="57150" y="-95250"/>
-            <a:ext cx="6134597" cy="3801303"/>
+            <a:ext cx="6046303" cy="3801303"/>
             <a:chOff x="-114300" y="-95250"/>
-            <a:chExt cx="6134597" cy="3801303"/>
+            <a:chExt cx="6046303" cy="3801303"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:graphicFrame macro="">
@@ -5943,13 +5943,18 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="409575" y="-95250"/>
-              <a:ext cx="2690352" cy="436786"/>
+              <a:off x="323850" y="-95250"/>
+              <a:ext cx="2767874" cy="436786"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="0">
@@ -5983,7 +5988,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-                <a:t> Sine_O, QM_O, Full_N, Full_O</a:t>
+                <a:t> Sine_O, QM_O, RAOES_N, RAOES_O</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fr-FR" sz="1100"/>
@@ -5999,13 +6004,18 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3171825" y="-85725"/>
-              <a:ext cx="2848472" cy="436786"/>
+              <a:off x="2705100" y="542925"/>
+              <a:ext cx="3211777" cy="436786"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="0">
@@ -6039,7 +6049,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-                <a:t> Sine_O, QM_N, QM_O, Full_N, Full_O</a:t>
+                <a:t> Sine_O, QM_N, QM_O, RAOES_N, RAOES_O</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fr-FR" sz="1100"/>
@@ -10080,7 +10090,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/experiments/box-plot-mine.xlsx
+++ b/experiments/box-plot-mine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="12690" tabRatio="780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10455" tabRatio="780"/>
   </bookViews>
   <sheets>
     <sheet name="BoxPlot" sheetId="3" r:id="rId1"/>
@@ -1541,55 +1541,55 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="17"/>
                   <c:pt idx="0">
-                    <c:v>11.25</c:v>
+                    <c:v>31.75</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>39.5</c:v>
+                    <c:v>25.25</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>33.25</c:v>
+                    <c:v>50.25</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6</c:v>
+                    <c:v>60.25</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6</c:v>
+                    <c:v>52.5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>20</c:v>
+                    <c:v>49</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.25</c:v>
+                    <c:v>50.75</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>5</c:v>
+                    <c:v>12.25</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>6</c:v>
+                    <c:v>21.75</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>30.5</c:v>
+                    <c:v>8.5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>48</c:v>
+                    <c:v>23.25</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.25</c:v>
+                    <c:v>21</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>5.25</c:v>
+                    <c:v>29</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>17.25</c:v>
+                    <c:v>56.25</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>10</c:v>
+                    <c:v>16.25</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>9.25</c:v>
+                    <c:v>56.75</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0.15749999999999997</c:v>
+                    <c:v>14.5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1619,55 +1619,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>61.25</c:v>
+                  <c:v>175.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.5</c:v>
+                  <c:v>147.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.25</c:v>
+                  <c:v>136.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129</c:v>
+                  <c:v>301.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>200.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.25</c:v>
+                  <c:v>409.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>104.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>149.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.5</c:v>
+                  <c:v>66.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69</c:v>
+                  <c:v>114.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91.25</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.25</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139.25</c:v>
+                  <c:v>202.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91</c:v>
+                  <c:v>173.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.25</c:v>
+                  <c:v>214.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.60275000000000001</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,55 +1857,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>6.25</c:v>
+                  <c:v>74.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>20.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.75</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.25</c:v>
+                  <c:v>33.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.25</c:v>
+                  <c:v>42.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7750000000000052E-2</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,55 +2090,55 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="17"/>
                   <c:pt idx="0">
-                    <c:v>23.625</c:v>
+                    <c:v>108.25</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>48.75</c:v>
+                    <c:v>59.625</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>51.25</c:v>
+                    <c:v>87.75</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>23.25</c:v>
+                    <c:v>63</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>10.125</c:v>
+                    <c:v>98.25</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>73.5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>64.875</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>25.5</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>14.25</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>12.75</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>14.5</c:v>
-                  </c:pt>
                   <c:pt idx="10">
-                    <c:v>51.75</c:v>
+                    <c:v>40.125</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>18</c:v>
+                    <c:v>74.625</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>16.875</c:v>
+                    <c:v>43.125</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>18.375</c:v>
+                    <c:v>120</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>19.125</c:v>
+                    <c:v>31.5</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>13</c:v>
+                    <c:v>133</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0.15749999999999997</c:v>
+                    <c:v>51.75</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2168,55 +2168,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>9.5</c:v>
+                  <c:v>54.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.75</c:v>
+                  <c:v>51.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.75</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.25</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.75</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.75</c:v>
+                  <c:v>33.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.5</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.25</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>46.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.75</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.724999999999993E-2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,8 +2232,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="279121720"/>
-        <c:axId val="279122112"/>
+        <c:axId val="301188720"/>
+        <c:axId val="301189112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2326,7 +2326,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2373,10 +2373,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -2385,43 +2385,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>271</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.435</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2438,11 +2438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279121720"/>
-        <c:axId val="279122112"/>
+        <c:axId val="301188720"/>
+        <c:axId val="301189112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279121720"/>
+        <c:axId val="301188720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2477,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279122112"/>
+        <c:crossAx val="301189112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2487,7 +2487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279122112"/>
+        <c:axId val="301189112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,7 +2522,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279121720"/>
+        <c:crossAx val="301188720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2551,8 +2551,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65737558967851939"/>
-          <c:y val="3.6315289466002057E-2"/>
+          <c:x val="0.61326599080462885"/>
+          <c:y val="0.85377654171717876"/>
           <c:w val="0.28938929469994623"/>
           <c:h val="6.0526315789473685E-2"/>
         </c:manualLayout>
@@ -2685,55 +2685,55 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="17"/>
                   <c:pt idx="0">
-                    <c:v>11.25</c:v>
+                    <c:v>31.75</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>39.5</c:v>
+                    <c:v>25.25</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>33.25</c:v>
+                    <c:v>50.25</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6</c:v>
+                    <c:v>60.25</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6</c:v>
+                    <c:v>52.5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>20</c:v>
+                    <c:v>49</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.25</c:v>
+                    <c:v>50.75</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>5</c:v>
+                    <c:v>12.25</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>6</c:v>
+                    <c:v>21.75</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>30.5</c:v>
+                    <c:v>8.5</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>48</c:v>
+                    <c:v>23.25</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.25</c:v>
+                    <c:v>21</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>5.25</c:v>
+                    <c:v>29</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>17.25</c:v>
+                    <c:v>56.25</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>10</c:v>
+                    <c:v>16.25</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>9.25</c:v>
+                    <c:v>56.75</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0.15749999999999997</c:v>
+                    <c:v>14.5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2763,55 +2763,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>61.25</c:v>
+                  <c:v>175.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.5</c:v>
+                  <c:v>147.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.25</c:v>
+                  <c:v>136.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129</c:v>
+                  <c:v>301.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>200.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.25</c:v>
+                  <c:v>409.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>104.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>149.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.5</c:v>
+                  <c:v>66.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69</c:v>
+                  <c:v>114.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91.25</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.25</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139.25</c:v>
+                  <c:v>202.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91</c:v>
+                  <c:v>173.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.25</c:v>
+                  <c:v>214.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.60275000000000001</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,55 +3001,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>6.25</c:v>
+                  <c:v>74.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>20.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.75</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.25</c:v>
+                  <c:v>33.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.25</c:v>
+                  <c:v>42.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7750000000000052E-2</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3234,55 +3234,55 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="17"/>
                   <c:pt idx="0">
-                    <c:v>23.625</c:v>
+                    <c:v>108.25</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>48.75</c:v>
+                    <c:v>59.625</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>51.25</c:v>
+                    <c:v>87.75</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>23.25</c:v>
+                    <c:v>63</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>10.125</c:v>
+                    <c:v>98.25</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>73.5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>64.875</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>25.5</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>14.25</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>12.75</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>14.5</c:v>
-                  </c:pt>
                   <c:pt idx="10">
-                    <c:v>51.75</c:v>
+                    <c:v>40.125</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>18</c:v>
+                    <c:v>74.625</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>16.875</c:v>
+                    <c:v>43.125</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>18.375</c:v>
+                    <c:v>120</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>19.125</c:v>
+                    <c:v>31.5</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>13</c:v>
+                    <c:v>133</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0.15749999999999997</c:v>
+                    <c:v>51.75</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3312,55 +3312,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>9.5</c:v>
+                  <c:v>54.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.75</c:v>
+                  <c:v>51.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.75</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.25</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.75</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.75</c:v>
+                  <c:v>33.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.5</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.25</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>46.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.75</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.724999999999993E-2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3376,8 +3376,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="279120544"/>
-        <c:axId val="279120152"/>
+        <c:axId val="301188328"/>
+        <c:axId val="301187544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3470,7 +3470,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,10 +3517,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -3529,43 +3529,43 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>271</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.435</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3582,11 +3582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279120544"/>
-        <c:axId val="279120152"/>
+        <c:axId val="301188328"/>
+        <c:axId val="301187544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279120544"/>
+        <c:axId val="301188328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,7 +3621,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279120152"/>
+        <c:crossAx val="301187544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3631,7 +3631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279120152"/>
+        <c:axId val="301187544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,7 +3666,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279120544"/>
+        <c:crossAx val="301188328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3887,8 +3887,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="279122896"/>
-        <c:axId val="279123288"/>
+        <c:axId val="301186760"/>
+        <c:axId val="301189896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4061,8 +4061,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279122896"/>
-        <c:axId val="279123288"/>
+        <c:axId val="301186760"/>
+        <c:axId val="301189896"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4396,11 +4396,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279122896"/>
-        <c:axId val="279123288"/>
+        <c:axId val="301186760"/>
+        <c:axId val="301189896"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="279122896"/>
+        <c:axId val="301186760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,7 +4435,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279123288"/>
+        <c:crossAx val="301189896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4445,7 +4445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279123288"/>
+        <c:axId val="301189896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,7 +4480,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279122896"/>
+        <c:crossAx val="301186760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4931,8 +4931,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="279124072"/>
-        <c:axId val="177933112"/>
+        <c:axId val="301190680"/>
+        <c:axId val="301191072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5159,11 +5159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279124072"/>
-        <c:axId val="177933112"/>
+        <c:axId val="301190680"/>
+        <c:axId val="301191072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279124072"/>
+        <c:axId val="301190680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5198,7 +5198,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177933112"/>
+        <c:crossAx val="301191072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5208,7 +5208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177933112"/>
+        <c:axId val="301191072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5243,7 +5243,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279124072"/>
+        <c:crossAx val="301190680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5418,228 +5418,276 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>505238</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>24847</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198781</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>122433</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123755</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>65021</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44243</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Groupe 11"/>
+        <xdr:cNvPr id="2" name="Groupe 1"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7363238" y="604630"/>
-          <a:ext cx="1306847" cy="264560"/>
-          <a:chOff x="7363238" y="604630"/>
-          <a:chExt cx="1306847" cy="264560"/>
+          <a:off x="3677477" y="3503544"/>
+          <a:ext cx="3245544" cy="267873"/>
+          <a:chOff x="7363238" y="612913"/>
+          <a:chExt cx="3245544" cy="267873"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="12" name="Groupe 11"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="7363238" y="704021"/>
-            <a:ext cx="91109" cy="82827"/>
+            <a:off x="7363238" y="612913"/>
+            <a:ext cx="1331695" cy="264560"/>
+            <a:chOff x="7363238" y="612913"/>
+            <a:chExt cx="1331695" cy="264560"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="ZoneTexte 10"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="Rectangle 8"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7363238" y="704021"/>
+              <a:ext cx="91109" cy="82827"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="ZoneTexte 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7446065" y="612913"/>
+              <a:ext cx="1248868" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Simple benchmark</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="Groupe 13"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="7421217" y="604630"/>
-            <a:ext cx="1248868" cy="264560"/>
+            <a:off x="9089336" y="616226"/>
+            <a:ext cx="1519446" cy="264560"/>
+            <a:chOff x="9086022" y="438978"/>
+            <a:chExt cx="1519446" cy="264560"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>Simple benchmark</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Rectangle 14"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9086022" y="530086"/>
+              <a:ext cx="91109" cy="82827"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="ZoneTexte 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9127435" y="438978"/>
+              <a:ext cx="1478033" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Composite benchmark</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>508552</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>36443</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>265043</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>332546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>354912</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>135351</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>265044</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Groupe 13"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7366552" y="781878"/>
-          <a:ext cx="1536012" cy="264560"/>
-          <a:chOff x="7363238" y="604630"/>
-          <a:chExt cx="1536012" cy="264560"/>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur droit 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4098" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6278217" y="332546"/>
+          <a:ext cx="1" cy="3146150"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7363238" y="704021"/>
-            <a:ext cx="91109" cy="82827"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="ZoneTexte 15"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7421217" y="604630"/>
-            <a:ext cx="1478033" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>Composite benchmark</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6614,8 +6662,8 @@
   </sheetPr>
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6795,71 +6843,71 @@
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:R27" si="0">MIN(B$50:B$90)</f>
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>359</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="M27" s="4">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="N27" s="4">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="R27" s="4">
         <f t="shared" si="0"/>
-        <v>0.30199999999999999</v>
+        <v>65</v>
       </c>
       <c r="T27" s="51" t="s">
         <v>107</v>
@@ -6871,71 +6919,71 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" ref="B28:R28" si="1">PERCENTILE(B$50:B$90,0.25)</f>
-        <v>61.25</v>
+        <v>175.75</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
-        <v>63.5</v>
+        <v>147.25</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>88.25</v>
+        <v>136.25</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>301.25</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>200.5</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="1"/>
-        <v>99.25</v>
+        <v>409.75</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>104.25</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>149.75</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="1"/>
-        <v>51.5</v>
+        <v>66.5</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>114.25</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="1"/>
-        <v>91.25</v>
+        <v>155</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="1"/>
-        <v>78.25</v>
+        <v>148</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="1"/>
-        <v>139.25</v>
+        <v>202.25</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>173.25</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>31.25</v>
+        <v>214.75</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="1"/>
-        <v>0.60275000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="T28" s="51" t="s">
         <v>108</v>
@@ -6947,71 +6995,71 @@
       </c>
       <c r="B29" s="4">
         <f t="shared" ref="B29:R29" si="2">MEDIAN(B$50:B$90)</f>
-        <v>67.5</v>
+        <v>250</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>165.5</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>403</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>78.5</v>
+        <v>234</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="2"/>
-        <v>224</v>
+        <v>421</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>453.5</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="2"/>
-        <v>22.5</v>
+        <v>120</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>168.5</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>125.5</v>
       </c>
       <c r="M29" s="4">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="N29" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>168.5</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="2"/>
-        <v>145.5</v>
+        <v>235.5</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>180.5</v>
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>257.5</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="2"/>
-        <v>0.63050000000000006</v>
+        <v>95</v>
       </c>
       <c r="T29" s="52" t="s">
         <v>109</v>
@@ -7023,71 +7071,71 @@
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30:R30" si="3">PERCENTILE(B$50:B$90,0.75)</f>
-        <v>77</v>
+        <v>304.75</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="3"/>
-        <v>128.75</v>
+        <v>235.25</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="3"/>
-        <v>148.75</v>
+        <v>469</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="3"/>
-        <v>82.75</v>
+        <v>266</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
-        <v>234</v>
+        <v>524</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="3"/>
-        <v>113.75</v>
+        <v>463.75</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>30.25</v>
+        <v>153.25</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="3"/>
-        <v>80.5</v>
+        <v>83.5</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="3"/>
-        <v>103.5</v>
+        <v>141</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="3"/>
-        <v>103.25</v>
+        <v>204.75</v>
       </c>
       <c r="N30" s="4">
         <f t="shared" si="3"/>
-        <v>89.5</v>
+        <v>176.75</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="3"/>
-        <v>151.5</v>
+        <v>282.25</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="3"/>
-        <v>103.75</v>
+        <v>194.5</v>
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="R30" s="4">
         <f t="shared" si="3"/>
-        <v>0.70774999999999999</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -7096,71 +7144,71 @@
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31:R31" si="4">MAX(B$50:B$90)</f>
-        <v>107</v>
+        <v>413</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="4"/>
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>323</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="4"/>
-        <v>172</v>
+        <v>532</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="4"/>
-        <v>271</v>
+        <v>657</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>606</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="4"/>
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="M31" s="4">
         <f t="shared" si="4"/>
-        <v>151</v>
+        <v>385</v>
       </c>
       <c r="N31" s="4">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="4"/>
-        <v>197</v>
+        <v>498</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="4"/>
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="4">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>442</v>
       </c>
       <c r="R31" s="4">
         <f t="shared" si="4"/>
-        <v>13.435</v>
+        <v>170</v>
       </c>
       <c r="T31" s="51" t="s">
         <v>110</v>
@@ -7172,71 +7220,71 @@
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32:R32" si="5">B30-B28</f>
-        <v>15.75</v>
+        <v>129</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="5"/>
-        <v>32.5</v>
+        <v>39.75</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="5"/>
-        <v>40.5</v>
+        <v>99</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="5"/>
-        <v>19.75</v>
+        <v>167.75</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="5"/>
-        <v>6.75</v>
+        <v>65.5</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" ref="G32:Q32" si="6">G30-G28</f>
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="6"/>
-        <v>14.5</v>
+        <v>54</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="6"/>
-        <v>10.25</v>
+        <v>49</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>43.25</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="6"/>
-        <v>34.5</v>
+        <v>26.75</v>
       </c>
       <c r="M32" s="4">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>49.75</v>
       </c>
       <c r="N32" s="4">
         <f t="shared" si="6"/>
-        <v>11.25</v>
+        <v>28.75</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="6"/>
-        <v>12.25</v>
+        <v>80</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="6"/>
-        <v>12.75</v>
+        <v>21.25</v>
       </c>
       <c r="Q32" s="4">
         <f t="shared" si="6"/>
-        <v>10.75</v>
+        <v>94.25</v>
       </c>
       <c r="R32" s="4">
         <f t="shared" si="5"/>
-        <v>0.10499999999999998</v>
+        <v>34.5</v>
       </c>
       <c r="T32" s="51" t="s">
         <v>111</v>
@@ -7248,11 +7296,11 @@
       </c>
       <c r="B33" s="4">
         <f t="shared" ref="B33:R33" si="7">COUNTIF(B$50:B$90,"&gt;"&amp;B39)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="7"/>
@@ -7264,35 +7312,35 @@
       </c>
       <c r="F33" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" ref="G33:Q33" si="8">COUNTIF(G$50:G$90,"&gt;"&amp;G39)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" s="4">
         <f t="shared" si="8"/>
@@ -7300,11 +7348,11 @@
       </c>
       <c r="O33" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="4">
         <f t="shared" si="8"/>
@@ -7312,7 +7360,7 @@
       </c>
       <c r="R33" s="4">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T33" s="51" t="s">
         <v>112</v>
@@ -7388,7 +7436,7 @@
       </c>
       <c r="R34" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="51" t="s">
         <v>113</v>
@@ -7422,71 +7470,71 @@
       </c>
       <c r="B36" s="4">
         <f t="shared" ref="B36:R37" si="11">B29-B28</f>
-        <v>6.25</v>
+        <v>74.25</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="11"/>
-        <v>20.5</v>
+        <v>18.25</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="11"/>
-        <v>22.75</v>
+        <v>47.75</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>101.75</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="11"/>
-        <v>2.5</v>
+        <v>33.5</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" ref="G36:Q36" si="12">G29-G28</f>
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="12"/>
-        <v>5.75</v>
+        <v>43.75</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="12"/>
-        <v>2.5</v>
+        <v>15.75</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>18.75</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="12"/>
-        <v>18.5</v>
+        <v>5.5</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>11.25</v>
       </c>
       <c r="M36" s="4">
         <f t="shared" si="12"/>
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N36" s="4">
         <f t="shared" si="12"/>
-        <v>6.75</v>
+        <v>20.5</v>
       </c>
       <c r="O36" s="4">
         <f t="shared" si="12"/>
-        <v>6.25</v>
+        <v>33.25</v>
       </c>
       <c r="P36" s="4">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>7.25</v>
       </c>
       <c r="Q36" s="4">
         <f t="shared" si="12"/>
-        <v>5.25</v>
+        <v>42.75</v>
       </c>
       <c r="R36" s="4">
         <f t="shared" si="11"/>
-        <v>2.7750000000000052E-2</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -7495,71 +7543,71 @@
       </c>
       <c r="B37" s="4">
         <f t="shared" si="11"/>
-        <v>9.5</v>
+        <v>54.75</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>21.5</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="11"/>
-        <v>17.75</v>
+        <v>51.25</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="11"/>
-        <v>12.75</v>
+        <v>66</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="11"/>
-        <v>4.25</v>
+        <v>32</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" ref="G37:Q37" si="13">G30-G29</f>
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="13"/>
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="13"/>
-        <v>7.75</v>
+        <v>33.25</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>24.5</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="13"/>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="13"/>
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="M37" s="4">
         <f t="shared" si="13"/>
-        <v>7.25</v>
+        <v>37.75</v>
       </c>
       <c r="N37" s="4">
         <f t="shared" si="13"/>
-        <v>4.5</v>
+        <v>8.25</v>
       </c>
       <c r="O37" s="4">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>46.75</v>
       </c>
       <c r="P37" s="4">
         <f t="shared" si="13"/>
-        <v>9.75</v>
+        <v>14</v>
       </c>
       <c r="Q37" s="4">
         <f t="shared" si="13"/>
-        <v>5.5</v>
+        <v>51.5</v>
       </c>
       <c r="R37" s="4">
         <f t="shared" si="11"/>
-        <v>7.724999999999993E-2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -7590,71 +7638,71 @@
       </c>
       <c r="B39" s="4">
         <f t="shared" ref="B39:R39" si="14">B30+1.5*B32</f>
-        <v>100.625</v>
+        <v>498.25</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="14"/>
-        <v>144.75</v>
+        <v>246.625</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="14"/>
-        <v>189.5</v>
+        <v>383.75</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="14"/>
-        <v>178.375</v>
+        <v>720.625</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="14"/>
-        <v>92.875</v>
+        <v>364.25</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" ref="G39:Q39" si="15">G30+1.5*G32</f>
-        <v>259.5</v>
+        <v>774.5</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="15"/>
-        <v>135.5</v>
+        <v>544.75</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="15"/>
-        <v>45.625</v>
+        <v>226.75</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="15"/>
-        <v>59</v>
+        <v>257.875</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="15"/>
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="15"/>
-        <v>155.25</v>
+        <v>181.125</v>
       </c>
       <c r="M39" s="4">
         <f t="shared" si="15"/>
-        <v>121.25</v>
+        <v>279.375</v>
       </c>
       <c r="N39" s="4">
         <f t="shared" si="15"/>
-        <v>106.375</v>
+        <v>219.875</v>
       </c>
       <c r="O39" s="4">
         <f t="shared" si="15"/>
-        <v>169.875</v>
+        <v>402.25</v>
       </c>
       <c r="P39" s="4">
         <f t="shared" si="15"/>
-        <v>122.875</v>
+        <v>226.375</v>
       </c>
       <c r="Q39" s="4">
         <f t="shared" si="15"/>
-        <v>58.125</v>
+        <v>450.375</v>
       </c>
       <c r="R39" s="4">
         <f t="shared" si="14"/>
-        <v>0.86524999999999996</v>
+        <v>165.75</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
@@ -7663,71 +7711,71 @@
       </c>
       <c r="B40" s="4">
         <f t="shared" ref="B40:R40" si="16">B28-1.5*B32</f>
-        <v>37.625</v>
+        <v>-17.75</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="16"/>
-        <v>14.75</v>
+        <v>87.625</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="16"/>
-        <v>27.5</v>
+        <v>-12.25</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="16"/>
-        <v>99.375</v>
+        <v>49.625</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="16"/>
-        <v>65.875</v>
+        <v>102.25</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" ref="G40:Q40" si="17">G28-1.5*G32</f>
-        <v>191.5</v>
+        <v>106.5</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="17"/>
-        <v>77.5</v>
+        <v>328.75</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" si="17"/>
-        <v>4.625</v>
+        <v>30.75</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="17"/>
-        <v>35</v>
+        <v>84.875</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="17"/>
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="17"/>
-        <v>17.25</v>
+        <v>74.125</v>
       </c>
       <c r="M40" s="4">
         <f t="shared" si="17"/>
-        <v>73.25</v>
+        <v>80.375</v>
       </c>
       <c r="N40" s="4">
         <f t="shared" si="17"/>
-        <v>61.375</v>
+        <v>104.875</v>
       </c>
       <c r="O40" s="4">
         <f t="shared" si="17"/>
-        <v>120.875</v>
+        <v>82.25</v>
       </c>
       <c r="P40" s="4">
         <f t="shared" si="17"/>
-        <v>71.875</v>
+        <v>141.375</v>
       </c>
       <c r="Q40" s="4">
         <f t="shared" si="17"/>
-        <v>15.125</v>
+        <v>73.375</v>
       </c>
       <c r="R40" s="4">
         <f t="shared" si="16"/>
-        <v>0.44525000000000003</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -7736,71 +7784,71 @@
       </c>
       <c r="B41" s="4">
         <f t="shared" ref="B41:R41" si="18">MIN(B39,B31)</f>
-        <v>100.625</v>
+        <v>413</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="18"/>
-        <v>144.75</v>
+        <v>246.625</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="18"/>
-        <v>180</v>
+        <v>323</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="18"/>
-        <v>172</v>
+        <v>532</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" si="18"/>
-        <v>92.875</v>
+        <v>364.25</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" ref="G41:Q41" si="19">MIN(G39,G31)</f>
-        <v>259.5</v>
+        <v>657</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="19"/>
-        <v>128</v>
+        <v>544.75</v>
       </c>
       <c r="I41" s="4">
         <f t="shared" si="19"/>
-        <v>43</v>
+        <v>226.75</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="19"/>
-        <v>58</v>
+        <v>257.875</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="19"/>
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="19"/>
-        <v>155.25</v>
+        <v>181.125</v>
       </c>
       <c r="M41" s="4">
         <f t="shared" si="19"/>
-        <v>121.25</v>
+        <v>279.375</v>
       </c>
       <c r="N41" s="4">
         <f t="shared" si="19"/>
-        <v>106.375</v>
+        <v>219.875</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" si="19"/>
-        <v>169.875</v>
+        <v>402.25</v>
       </c>
       <c r="P41" s="4">
         <f t="shared" si="19"/>
-        <v>122.875</v>
+        <v>226</v>
       </c>
       <c r="Q41" s="4">
         <f t="shared" si="19"/>
-        <v>55</v>
+        <v>442</v>
       </c>
       <c r="R41" s="4">
         <f t="shared" si="18"/>
-        <v>0.86524999999999996</v>
+        <v>165.75</v>
       </c>
     </row>
     <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -7809,71 +7857,71 @@
       </c>
       <c r="B42" s="4">
         <f t="shared" ref="B42:R42" si="20">MAX(B27,B40)</f>
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="20"/>
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="20"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="20"/>
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" si="20"/>
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" ref="G42:Q42" si="21">MAX(G27,G40)</f>
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="21"/>
-        <v>92</v>
+        <v>359</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="21"/>
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="M42" s="4">
         <f t="shared" si="21"/>
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="N42" s="4">
         <f t="shared" si="21"/>
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="O42" s="4">
         <f t="shared" si="21"/>
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="P42" s="4">
         <f t="shared" si="21"/>
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="Q42" s="4">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="R42" s="4">
         <f t="shared" si="20"/>
-        <v>0.44525000000000003</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
@@ -7882,71 +7930,71 @@
       </c>
       <c r="B43" s="4">
         <f t="shared" ref="B43:R43" si="22">B41-B30</f>
-        <v>23.625</v>
+        <v>108.25</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="22"/>
-        <v>48.75</v>
+        <v>59.625</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" si="22"/>
-        <v>51.25</v>
+        <v>87.75</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="22"/>
-        <v>23.25</v>
+        <v>63</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" si="22"/>
-        <v>10.125</v>
+        <v>98.25</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" ref="G43:Q43" si="23">G41-G30</f>
-        <v>25.5</v>
+        <v>133</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" si="23"/>
-        <v>14.25</v>
+        <v>81</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="23"/>
-        <v>12.75</v>
+        <v>73.5</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>64.875</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="23"/>
-        <v>14.5</v>
+        <v>25.5</v>
       </c>
       <c r="L43" s="4">
         <f t="shared" si="23"/>
-        <v>51.75</v>
+        <v>40.125</v>
       </c>
       <c r="M43" s="4">
         <f t="shared" si="23"/>
-        <v>18</v>
+        <v>74.625</v>
       </c>
       <c r="N43" s="4">
         <f t="shared" si="23"/>
-        <v>16.875</v>
+        <v>43.125</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="23"/>
-        <v>18.375</v>
+        <v>120</v>
       </c>
       <c r="P43" s="4">
         <f t="shared" si="23"/>
-        <v>19.125</v>
+        <v>31.5</v>
       </c>
       <c r="Q43" s="4">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="R43" s="4">
         <f t="shared" si="22"/>
-        <v>0.15749999999999997</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
@@ -7955,71 +8003,71 @@
       </c>
       <c r="B44" s="4">
         <f t="shared" ref="B44:R44" si="24">B28-B42</f>
-        <v>11.25</v>
+        <v>31.75</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="24"/>
-        <v>39.5</v>
+        <v>25.25</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="24"/>
-        <v>33.25</v>
+        <v>50.25</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>60.25</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>52.5</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" ref="G44:Q44" si="25">G28-G42</f>
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" si="25"/>
-        <v>7.25</v>
+        <v>50.75</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>12.25</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v>21.75</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="25"/>
-        <v>30.5</v>
+        <v>8.5</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="25"/>
-        <v>48</v>
+        <v>23.25</v>
       </c>
       <c r="M44" s="4">
         <f t="shared" si="25"/>
-        <v>4.25</v>
+        <v>21</v>
       </c>
       <c r="N44" s="4">
         <f t="shared" si="25"/>
-        <v>5.25</v>
+        <v>29</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="25"/>
-        <v>17.25</v>
+        <v>56.25</v>
       </c>
       <c r="P44" s="4">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>16.25</v>
       </c>
       <c r="Q44" s="4">
         <f t="shared" si="25"/>
-        <v>9.25</v>
+        <v>56.75</v>
       </c>
       <c r="R44" s="4">
         <f t="shared" si="24"/>
-        <v>0.15749999999999997</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -8048,13 +8096,13 @@
       <c r="A46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="4" t="e">
         <f t="shared" ref="B46:R46" si="26">IF(B33&gt;0,B31,NA())</f>
-        <v>107</v>
+        <v>#N/A</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="26"/>
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="D46" s="4" t="e">
         <f t="shared" si="26"/>
@@ -8066,47 +8114,47 @@
       </c>
       <c r="F46" s="4">
         <f t="shared" si="26"/>
-        <v>98</v>
-      </c>
-      <c r="G46" s="4">
+        <v>401</v>
+      </c>
+      <c r="G46" s="4" t="e">
         <f t="shared" ref="G46:Q46" si="27">IF(G33&gt;0,G31,NA())</f>
-        <v>271</v>
-      </c>
-      <c r="H46" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="27"/>
+        <v>606</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="27"/>
+        <v>355</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="27"/>
+        <v>277</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="27"/>
+        <v>159</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="27"/>
+        <v>272</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="27"/>
+        <v>385</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="27"/>
+        <v>267</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="27"/>
+        <v>498</v>
+      </c>
+      <c r="P46" s="4" t="e">
         <f t="shared" si="27"/>
         <v>#N/A</v>
-      </c>
-      <c r="I46" s="4" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J46" s="4" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K46" s="4" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L46" s="4">
-        <f t="shared" si="27"/>
-        <v>173</v>
-      </c>
-      <c r="M46" s="4">
-        <f t="shared" si="27"/>
-        <v>151</v>
-      </c>
-      <c r="N46" s="4">
-        <f t="shared" si="27"/>
-        <v>122</v>
-      </c>
-      <c r="O46" s="4">
-        <f t="shared" si="27"/>
-        <v>197</v>
-      </c>
-      <c r="P46" s="4">
-        <f t="shared" si="27"/>
-        <v>123</v>
       </c>
       <c r="Q46" s="4" t="e">
         <f t="shared" si="27"/>
@@ -8114,7 +8162,7 @@
       </c>
       <c r="R46" s="4">
         <f t="shared" si="26"/>
-        <v>13.435</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
@@ -8185,9 +8233,9 @@
         <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="4" t="e">
         <f t="shared" si="28"/>
-        <v>0.30199999999999999</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -8270,1592 +8318,1568 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>86</v>
+        <v>403</v>
       </c>
       <c r="C50">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="D50">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="E50">
-        <v>162</v>
+        <v>461</v>
       </c>
       <c r="F50">
-        <v>73</v>
+        <v>401</v>
       </c>
       <c r="G50">
-        <v>247</v>
+        <v>635</v>
       </c>
       <c r="H50">
-        <v>128</v>
+        <v>524</v>
       </c>
       <c r="I50">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="J50">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="K50">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L50">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="M50">
-        <v>151</v>
+        <v>385</v>
       </c>
       <c r="N50">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="O50">
-        <v>154</v>
+        <v>498</v>
       </c>
       <c r="P50">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="Q50">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="R50">
-        <v>13.435</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="C51">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="D51">
+        <v>236</v>
+      </c>
+      <c r="E51">
+        <v>456</v>
+      </c>
+      <c r="F51">
+        <v>301</v>
+      </c>
+      <c r="G51">
+        <v>657</v>
+      </c>
+      <c r="H51">
+        <v>389</v>
+      </c>
+      <c r="I51">
+        <v>241</v>
+      </c>
+      <c r="J51">
+        <v>277</v>
+      </c>
+      <c r="K51">
+        <v>61</v>
+      </c>
+      <c r="L51">
+        <v>272</v>
+      </c>
+      <c r="M51">
+        <v>308</v>
+      </c>
+      <c r="N51">
+        <v>253</v>
+      </c>
+      <c r="O51">
+        <v>475</v>
+      </c>
+      <c r="P51">
+        <v>193</v>
+      </c>
+      <c r="Q51">
+        <v>365</v>
+      </c>
+      <c r="R51">
         <v>104</v>
-      </c>
-      <c r="E51">
-        <v>145</v>
-      </c>
-      <c r="F51">
-        <v>79</v>
-      </c>
-      <c r="G51">
-        <v>234</v>
-      </c>
-      <c r="H51">
-        <v>104</v>
-      </c>
-      <c r="I51">
-        <v>22</v>
-      </c>
-      <c r="J51">
-        <v>45</v>
-      </c>
-      <c r="K51">
-        <v>69</v>
-      </c>
-      <c r="L51">
-        <v>173</v>
-      </c>
-      <c r="M51">
-        <v>91</v>
-      </c>
-      <c r="N51">
-        <v>80</v>
-      </c>
-      <c r="O51">
-        <v>152</v>
-      </c>
-      <c r="P51">
-        <v>118</v>
-      </c>
-      <c r="Q51">
-        <v>43</v>
-      </c>
-      <c r="R51">
-        <v>2.0230000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="C52">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="D52">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="E52">
-        <v>124</v>
+        <v>475</v>
       </c>
       <c r="F52">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="G52">
-        <v>271</v>
+        <v>645</v>
       </c>
       <c r="H52">
-        <v>100</v>
+        <v>457</v>
       </c>
       <c r="I52">
-        <v>23</v>
+        <v>355</v>
       </c>
       <c r="J52">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="K52">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L52">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="M52">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="N52">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="O52">
-        <v>140</v>
+        <v>486</v>
       </c>
       <c r="P52">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="Q52">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="R52">
-        <v>1.792</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="C53">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="D53">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E53">
-        <v>148</v>
+        <v>484</v>
       </c>
       <c r="F53">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="G53">
-        <v>225</v>
+        <v>523</v>
       </c>
       <c r="H53">
-        <v>110</v>
+        <v>393</v>
       </c>
       <c r="I53">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="J53">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="K53">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L53">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M53">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="N53">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="O53">
-        <v>150</v>
+        <v>458</v>
       </c>
       <c r="P53">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="Q53">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="R53">
-        <v>8.3079999999999998</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C54">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="D54">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="E54">
-        <v>131</v>
+        <v>414</v>
       </c>
       <c r="F54">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="G54">
-        <v>232</v>
+        <v>558</v>
       </c>
       <c r="H54">
-        <v>105</v>
+        <v>449</v>
       </c>
       <c r="I54">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="J54">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="K54">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="M54">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="N54">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="O54">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="P54">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="Q54">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="R54">
-        <v>0.629</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="C55">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="D55">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E55">
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="F55">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="G55">
+        <v>548</v>
+      </c>
+      <c r="H55">
+        <v>476</v>
+      </c>
+      <c r="I55">
+        <v>148</v>
+      </c>
+      <c r="J55">
+        <v>178</v>
+      </c>
+      <c r="K55">
+        <v>79</v>
+      </c>
+      <c r="L55">
+        <v>115</v>
+      </c>
+      <c r="M55">
+        <v>212</v>
+      </c>
+      <c r="N55">
+        <v>169</v>
+      </c>
+      <c r="O55">
+        <v>339</v>
+      </c>
+      <c r="P55">
+        <v>186</v>
+      </c>
+      <c r="Q55">
         <v>202</v>
       </c>
-      <c r="H55">
-        <v>97</v>
-      </c>
-      <c r="I55">
-        <v>20</v>
-      </c>
-      <c r="J55">
-        <v>53</v>
-      </c>
-      <c r="K55">
-        <v>56</v>
-      </c>
-      <c r="L55">
-        <v>155</v>
-      </c>
-      <c r="M55">
-        <v>104</v>
-      </c>
-      <c r="N55">
-        <v>86</v>
-      </c>
-      <c r="O55">
-        <v>138</v>
-      </c>
-      <c r="P55">
-        <v>97</v>
-      </c>
-      <c r="Q55">
-        <v>42</v>
-      </c>
       <c r="R55">
-        <v>0.64700000000000002</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="C56">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="D56">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="E56">
-        <v>124</v>
+        <v>501</v>
       </c>
       <c r="F56">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="G56">
-        <v>223</v>
+        <v>524</v>
       </c>
       <c r="H56">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="I56">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="J56">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="K56">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L56">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="M56">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="N56">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="O56">
-        <v>142</v>
+        <v>355</v>
       </c>
       <c r="P56">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="Q56">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="R56">
-        <v>0.70399999999999996</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="C57">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="D57">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="E57">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="F57">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="G57">
-        <v>270</v>
+        <v>415</v>
       </c>
       <c r="H57">
-        <v>120</v>
+        <v>359</v>
       </c>
       <c r="I57">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="J57">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="K57">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L57">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="M57">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="N57">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="O57">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="P57">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="Q57">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="R57">
-        <v>0.63300000000000001</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>65</v>
+        <v>331</v>
       </c>
       <c r="C58">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="D58">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="E58">
-        <v>135</v>
+        <v>532</v>
       </c>
       <c r="F58">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="G58">
-        <v>219</v>
+        <v>402</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>412</v>
       </c>
       <c r="I58">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="J58">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="K58">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L58">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="M58">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="N58">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="O58">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="P58">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q58">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="R58">
-        <v>0.63</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="C59">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D59">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="E59">
-        <v>123</v>
+        <v>432</v>
       </c>
       <c r="F59">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="G59">
-        <v>218</v>
+        <v>472</v>
       </c>
       <c r="H59">
-        <v>105</v>
+        <v>416</v>
       </c>
       <c r="I59">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="J59">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="K59">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="L59">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="M59">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="N59">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="O59">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="P59">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="Q59">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="R59">
-        <v>0.63100000000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="C60">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D60">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="E60">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="F60">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="G60">
-        <v>234</v>
+        <v>434</v>
       </c>
       <c r="H60">
-        <v>110</v>
+        <v>402</v>
       </c>
       <c r="I60">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="J60">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="K60">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L60">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="M60">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="N60">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="O60">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="P60">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="Q60">
-        <v>32</v>
+        <v>341</v>
       </c>
       <c r="R60">
-        <v>0.80200000000000005</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="C61">
+        <v>129</v>
+      </c>
+      <c r="D61">
+        <v>262</v>
+      </c>
+      <c r="E61">
+        <v>247</v>
+      </c>
+      <c r="F61">
+        <v>163</v>
+      </c>
+      <c r="G61">
+        <v>422</v>
+      </c>
+      <c r="H61">
+        <v>374</v>
+      </c>
+      <c r="I61">
+        <v>93</v>
+      </c>
+      <c r="J61">
+        <v>196</v>
+      </c>
+      <c r="K61">
         <v>72</v>
       </c>
-      <c r="D61">
-        <v>123</v>
-      </c>
-      <c r="E61">
-        <v>166</v>
-      </c>
-      <c r="F61">
-        <v>91</v>
-      </c>
-      <c r="G61">
-        <v>228</v>
-      </c>
-      <c r="H61">
-        <v>93</v>
-      </c>
-      <c r="I61">
-        <v>31</v>
-      </c>
-      <c r="J61">
-        <v>44</v>
-      </c>
-      <c r="K61">
-        <v>73</v>
-      </c>
       <c r="L61">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M61">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="N61">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="O61">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="P61">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="Q61">
-        <v>51</v>
+        <v>353</v>
       </c>
       <c r="R61">
-        <v>0.70699999999999996</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C62">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="D62">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="E62">
-        <v>144</v>
+        <v>292</v>
       </c>
       <c r="F62">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="G62">
-        <v>256</v>
+        <v>347</v>
       </c>
       <c r="H62">
-        <v>96</v>
+        <v>456</v>
       </c>
       <c r="I62">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="J62">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="K62">
+        <v>71</v>
+      </c>
+      <c r="L62">
+        <v>114</v>
+      </c>
+      <c r="M62">
+        <v>181</v>
+      </c>
+      <c r="N62">
+        <v>174</v>
+      </c>
+      <c r="O62">
+        <v>244</v>
+      </c>
+      <c r="P62">
+        <v>207</v>
+      </c>
+      <c r="Q62">
+        <v>279</v>
+      </c>
+      <c r="R62">
         <v>83</v>
-      </c>
-      <c r="L62">
-        <v>136</v>
-      </c>
-      <c r="M62">
-        <v>113</v>
-      </c>
-      <c r="N62">
-        <v>87</v>
-      </c>
-      <c r="O62">
-        <v>144</v>
-      </c>
-      <c r="P62">
-        <v>81</v>
-      </c>
-      <c r="Q62">
-        <v>22</v>
-      </c>
-      <c r="R62">
-        <v>0.71</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C63">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D63">
-        <v>180</v>
+        <v>323</v>
       </c>
       <c r="E63">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="F63">
+        <v>188</v>
+      </c>
+      <c r="G63">
+        <v>339</v>
+      </c>
+      <c r="H63">
+        <v>437</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
+      </c>
+      <c r="J63">
+        <v>175</v>
+      </c>
+      <c r="K63">
         <v>76</v>
       </c>
-      <c r="G63">
-        <v>222</v>
-      </c>
-      <c r="H63">
-        <v>109</v>
-      </c>
-      <c r="I63">
-        <v>22</v>
-      </c>
-      <c r="J63">
-        <v>43</v>
-      </c>
-      <c r="K63">
-        <v>50</v>
-      </c>
       <c r="L63">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="M63">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="N63">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="O63">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="P63">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="Q63">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="R63">
-        <v>0.628</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="C64">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="D64">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="E64">
+        <v>275</v>
+      </c>
+      <c r="F64">
+        <v>159</v>
+      </c>
+      <c r="G64">
+        <v>421</v>
+      </c>
+      <c r="H64">
+        <v>433</v>
+      </c>
+      <c r="I64">
+        <v>129</v>
+      </c>
+      <c r="J64">
         <v>133</v>
       </c>
-      <c r="F64">
-        <v>76</v>
-      </c>
-      <c r="G64">
-        <v>213</v>
-      </c>
-      <c r="H64">
-        <v>92</v>
-      </c>
-      <c r="I64">
-        <v>17</v>
-      </c>
-      <c r="J64">
-        <v>55</v>
-      </c>
       <c r="K64">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L64">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="M64">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="N64">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="O64">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="P64">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="Q64">
-        <v>38</v>
+        <v>430</v>
       </c>
       <c r="R64">
-        <v>0.623</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="C65">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="D65">
+        <v>245</v>
+      </c>
+      <c r="E65">
+        <v>251</v>
+      </c>
+      <c r="F65">
+        <v>251</v>
+      </c>
+      <c r="G65">
+        <v>357</v>
+      </c>
+      <c r="H65">
+        <v>452</v>
+      </c>
+      <c r="I65">
+        <v>93</v>
+      </c>
+      <c r="J65">
+        <v>156</v>
+      </c>
+      <c r="K65">
         <v>101</v>
       </c>
-      <c r="E65">
-        <v>142</v>
-      </c>
-      <c r="F65">
-        <v>84</v>
-      </c>
-      <c r="G65">
-        <v>225</v>
-      </c>
-      <c r="H65">
-        <v>119</v>
-      </c>
-      <c r="I65">
-        <v>22</v>
-      </c>
-      <c r="J65">
-        <v>47</v>
-      </c>
-      <c r="K65">
-        <v>81</v>
-      </c>
       <c r="L65">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="M65">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="N65">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="O65">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="P65">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="Q65">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="R65">
-        <v>0.56100000000000005</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="C66">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D66">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="E66">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="F66">
-        <v>72</v>
+        <v>372</v>
       </c>
       <c r="G66">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="H66">
-        <v>103</v>
+        <v>457</v>
       </c>
       <c r="I66">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="J66">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="K66">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="L66">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="M66">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="N66">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="O66">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="P66">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="Q66">
-        <v>55</v>
+        <v>442</v>
       </c>
       <c r="R66">
-        <v>0.63100000000000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="C67">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="D67">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="E67">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F67">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="G67">
-        <v>217</v>
+        <v>334</v>
       </c>
       <c r="H67">
-        <v>105</v>
+        <v>606</v>
       </c>
       <c r="I67">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="J67">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="K67">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="L67">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="M67">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="N67">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="O67">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="P67">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="R67">
-        <v>0.66900000000000004</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C68">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="D68">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="E68">
+        <v>329</v>
+      </c>
+      <c r="F68">
+        <v>295</v>
+      </c>
+      <c r="G68">
+        <v>383</v>
+      </c>
+      <c r="H68">
+        <v>537</v>
+      </c>
+      <c r="I68">
+        <v>155</v>
+      </c>
+      <c r="J68">
+        <v>169</v>
+      </c>
+      <c r="K68">
+        <v>69</v>
+      </c>
+      <c r="L68">
+        <v>91</v>
+      </c>
+      <c r="M68">
+        <v>134</v>
+      </c>
+      <c r="N68">
         <v>146</v>
       </c>
-      <c r="F68">
-        <v>82</v>
-      </c>
-      <c r="G68">
-        <v>213</v>
-      </c>
-      <c r="H68">
-        <v>99</v>
-      </c>
-      <c r="I68">
-        <v>24</v>
-      </c>
-      <c r="J68">
-        <v>45</v>
-      </c>
-      <c r="K68">
-        <v>65</v>
-      </c>
-      <c r="L68">
-        <v>104</v>
-      </c>
-      <c r="M68">
-        <v>89</v>
-      </c>
-      <c r="N68">
-        <v>81</v>
-      </c>
       <c r="O68">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="P68">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="Q68">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="R68">
-        <v>0.626</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69">
-        <v>60</v>
+        <v>252</v>
       </c>
       <c r="C69">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="D69">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="E69">
-        <v>124</v>
+        <v>478</v>
       </c>
       <c r="F69">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="G69">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="H69">
-        <v>97</v>
+        <v>463</v>
       </c>
       <c r="I69">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="J69">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="K69">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="L69">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="M69">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="N69">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="O69">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="P69">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="Q69">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="R69">
-        <v>0.623</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="C70">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="D70">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E70">
-        <v>127</v>
+        <v>386</v>
       </c>
       <c r="F70">
+        <v>282</v>
+      </c>
+      <c r="G70">
+        <v>384</v>
+      </c>
+      <c r="H70">
+        <v>464</v>
+      </c>
+      <c r="I70">
+        <v>96</v>
+      </c>
+      <c r="J70">
+        <v>173</v>
+      </c>
+      <c r="K70">
+        <v>70</v>
+      </c>
+      <c r="L70">
+        <v>107</v>
+      </c>
+      <c r="M70">
+        <v>172</v>
+      </c>
+      <c r="N70">
+        <v>159</v>
+      </c>
+      <c r="O70">
+        <v>201</v>
+      </c>
+      <c r="P70">
+        <v>173</v>
+      </c>
+      <c r="Q70">
+        <v>311</v>
+      </c>
+      <c r="R70">
         <v>79</v>
-      </c>
-      <c r="G70">
-        <v>251</v>
-      </c>
-      <c r="H70">
-        <v>105</v>
-      </c>
-      <c r="I70">
-        <v>38</v>
-      </c>
-      <c r="J70">
-        <v>44</v>
-      </c>
-      <c r="K70">
-        <v>83</v>
-      </c>
-      <c r="L70">
-        <v>73</v>
-      </c>
-      <c r="M70">
-        <v>95</v>
-      </c>
-      <c r="N70">
-        <v>86</v>
-      </c>
-      <c r="O70">
-        <v>143</v>
-      </c>
-      <c r="P70">
-        <v>86</v>
-      </c>
-      <c r="Q70">
-        <v>23</v>
-      </c>
-      <c r="R70">
-        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="C71">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="D71">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="E71">
-        <v>172</v>
+        <v>358</v>
       </c>
       <c r="F71">
+        <v>258</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71">
+        <v>493</v>
+      </c>
+      <c r="I71">
+        <v>117</v>
+      </c>
+      <c r="J71">
+        <v>149</v>
+      </c>
+      <c r="K71">
+        <v>62</v>
+      </c>
+      <c r="L71">
+        <v>109</v>
+      </c>
+      <c r="M71">
+        <v>155</v>
+      </c>
+      <c r="N71">
+        <v>155</v>
+      </c>
+      <c r="O71">
+        <v>207</v>
+      </c>
+      <c r="P71">
+        <v>178</v>
+      </c>
+      <c r="Q71">
+        <v>254</v>
+      </c>
+      <c r="R71">
         <v>81</v>
-      </c>
-      <c r="G71">
-        <v>229</v>
-      </c>
-      <c r="H71">
-        <v>116</v>
-      </c>
-      <c r="I71">
-        <v>22</v>
-      </c>
-      <c r="J71">
-        <v>47</v>
-      </c>
-      <c r="K71">
-        <v>39</v>
-      </c>
-      <c r="L71">
-        <v>80</v>
-      </c>
-      <c r="M71">
-        <v>92</v>
-      </c>
-      <c r="N71">
-        <v>77</v>
-      </c>
-      <c r="O71">
-        <v>141</v>
-      </c>
-      <c r="P71">
-        <v>91</v>
-      </c>
-      <c r="Q71">
-        <v>43</v>
-      </c>
-      <c r="R71">
-        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72">
-        <v>64</v>
+        <v>413</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="D72">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E72">
-        <v>149</v>
+        <v>349</v>
       </c>
       <c r="F72">
-        <v>78</v>
-      </c>
-      <c r="G72">
-        <v>217</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G72"/>
       <c r="H72">
-        <v>125</v>
+        <v>441</v>
       </c>
       <c r="I72">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="J72">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="K72">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L72">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="M72">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="N72">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="O72">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="P72">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="Q72">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="R72">
-        <v>0.60799999999999998</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73">
-        <v>57</v>
+        <v>338</v>
       </c>
       <c r="C73">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="D73">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="E73">
-        <v>168</v>
+        <v>392</v>
       </c>
       <c r="F73">
-        <v>98</v>
-      </c>
-      <c r="G73">
-        <v>231</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G73"/>
       <c r="H73">
-        <v>116</v>
+        <v>405</v>
       </c>
       <c r="I73">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="J73">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="K73">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="L73">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M73">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="N73">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="O73">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="P73">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="Q73">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="R73">
-        <v>0.54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="C74">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="D74">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E74">
-        <v>148</v>
+        <v>342</v>
       </c>
       <c r="F74">
-        <v>77</v>
-      </c>
-      <c r="G74">
-        <v>219</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G74"/>
       <c r="H74">
-        <v>99</v>
+        <v>394</v>
       </c>
       <c r="I74">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="J74">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="K74">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="L74">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="M74">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="N74">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="O74">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="P74">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="Q74">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="R74">
-        <v>0.54700000000000004</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75">
-        <v>70</v>
+        <v>301</v>
       </c>
       <c r="C75">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="D75">
+        <v>110</v>
+      </c>
+      <c r="E75">
+        <v>361</v>
+      </c>
+      <c r="F75">
+        <v>226</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75">
+        <v>457</v>
+      </c>
+      <c r="I75">
         <v>132</v>
       </c>
-      <c r="E75">
-        <v>162</v>
-      </c>
-      <c r="F75">
-        <v>78</v>
-      </c>
-      <c r="G75">
-        <v>197</v>
-      </c>
-      <c r="H75">
-        <v>109</v>
-      </c>
-      <c r="I75">
-        <v>28</v>
-      </c>
       <c r="J75">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="K75">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="L75">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="M75">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="N75">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="O75">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="P75">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="Q75">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="R75">
-        <v>0.86299999999999999</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76">
-        <v>58</v>
+        <v>308</v>
       </c>
       <c r="C76">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="D76">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="E76">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="F76">
-        <v>89</v>
-      </c>
-      <c r="G76">
-        <v>214</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G76"/>
       <c r="H76">
-        <v>115</v>
+        <v>455</v>
       </c>
       <c r="I76">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="J76">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="K76">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="L76">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="M76">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="N76">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="O76">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="P76">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="Q76">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="R76">
-        <v>0.57199999999999995</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77">
-        <v>62</v>
+        <v>306</v>
       </c>
       <c r="C77">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="D77">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E77">
-        <v>158</v>
-      </c>
-      <c r="F77">
-        <v>76</v>
-      </c>
-      <c r="G77">
-        <v>265</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77"/>
       <c r="H77">
-        <v>105</v>
+        <v>557</v>
       </c>
       <c r="I77">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="J77">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="K77">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L77">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="M77">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="N77">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="O77">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="P77">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="Q77">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="R77">
-        <v>0.54200000000000004</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78">
-        <v>61</v>
+        <v>353</v>
       </c>
       <c r="C78">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="D78">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="E78">
-        <v>129</v>
-      </c>
-      <c r="F78">
-        <v>76</v>
-      </c>
-      <c r="G78">
-        <v>216</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78"/>
       <c r="H78">
-        <v>125</v>
+        <v>544</v>
       </c>
       <c r="I78">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="J78">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="K78">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L78">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="M78">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="N78">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="O78">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="P78">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="Q78">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="R78">
-        <v>0.54700000000000004</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="C79">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D79">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E79">
-        <v>129</v>
-      </c>
-      <c r="F79">
-        <v>78</v>
-      </c>
-      <c r="G79">
+        <v>495</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79">
+        <v>461</v>
+      </c>
+      <c r="I79">
+        <v>117</v>
+      </c>
+      <c r="J79">
+        <v>162</v>
+      </c>
+      <c r="K79">
+        <v>88</v>
+      </c>
+      <c r="L79">
+        <v>193</v>
+      </c>
+      <c r="M79">
+        <v>149</v>
+      </c>
+      <c r="N79">
+        <v>131</v>
+      </c>
+      <c r="O79">
+        <v>146</v>
+      </c>
+      <c r="P79">
+        <v>199</v>
+      </c>
+      <c r="Q79">
         <v>257</v>
       </c>
-      <c r="H79">
-        <v>102</v>
-      </c>
-      <c r="I79">
-        <v>33</v>
-      </c>
-      <c r="J79">
-        <v>58</v>
-      </c>
-      <c r="K79">
-        <v>72</v>
-      </c>
-      <c r="L79">
-        <v>145</v>
-      </c>
-      <c r="M79">
-        <v>96</v>
-      </c>
-      <c r="N79">
-        <v>99</v>
-      </c>
-      <c r="O79">
-        <v>149</v>
-      </c>
-      <c r="P79">
-        <v>86</v>
-      </c>
-      <c r="Q79">
-        <v>43</v>
-      </c>
       <c r="R79">
-        <v>0.60099999999999998</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
@@ -10089,7 +10113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
